--- a/Resource/excel/2006-玩家-成就系统.xlsx
+++ b/Resource/excel/2006-玩家-成就系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26340" windowHeight="13065"/>
+    <workbookView windowWidth="26310" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="achieve" sheetId="1" r:id="rId1"/>
@@ -20,55 +20,6 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-Add = 1,  // +
-Dec = 2,  // -
-Set = 3,  // =
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-UseOperate = 1,
-UseFinal = 2,
-</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="M2" authorId="0">
       <text>
         <r>
@@ -94,6 +45,146 @@
         </r>
       </text>
     </comment>
+    <comment ref="B4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+成就id
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+成就的限制条件
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+成就父属性名
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+成就的子属性名
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+成就的属性key</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+成就的触发条件类型
+Add = 1,  // +
+Dec = 2,  // -
+Set = 3,  // =
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H4" authorId="1">
       <text>
         <r>
@@ -112,11 +203,32 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-作者:
-Greater = 11, // &gt;=
-Less = 12,    // =&lt;
-Equal = 13,   // ==
+11  大于等于
+12  小于等于
+13  等于
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+触发的值</t>
         </r>
       </text>
     </comment>
@@ -189,6 +301,54 @@
 1 = +
 2 = -
 3 = =</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+完成条件
+11  大于等于
+12  小于等于
+13  等于
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N4" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+完成的数值, 达到数值就算完成</t>
         </r>
       </text>
     </comment>
@@ -375,9 +535,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -405,6 +565,81 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,16 +651,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,69 +691,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -522,36 +712,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -608,37 +768,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +876,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,115 +894,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,7 +997,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,9 +1058,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,42 +1075,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -933,133 +1093,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1416,15 +1576,15 @@
   <sheetPr/>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="4" max="5" width="20.625" customWidth="1"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="8" width="18.25" customWidth="1"/>
@@ -1591,7 +1751,6 @@
       <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>32</v>
       </c>
